--- a/18 个人理财知识/具体计算.xlsx
+++ b/18 个人理财知识/具体计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19995" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="自定义估算" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <t>公司名称</t>
   </si>
   <si>
-    <t>立昂微</t>
+    <t>比亚迪</t>
   </si>
   <si>
     <t>杉杉股份</t>
@@ -47,7 +47,7 @@
     <t>所属行业</t>
   </si>
   <si>
-    <t>饲料</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>电池</t>
@@ -541,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,25 +586,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFDBE8DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2EC0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9B876"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,16 +1045,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,10 +1066,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,28 +1090,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1114,19 +1120,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,38 +1141,41 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,7 +1263,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,13 +1284,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,38 +1305,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1400,6 +1397,20 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00A2AAE4"/>
+      <color rgb="00E9B28D"/>
+      <color rgb="001D2223"/>
+      <color rgb="00AAB6B8"/>
+      <color rgb="00FE9B1C"/>
+      <color rgb="00D0E1D1"/>
+      <color rgb="00B2EC0A"/>
+      <color rgb="008D8FB6"/>
+      <color rgb="00E9B876"/>
+      <color rgb="00DBE8DE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1668,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,7 +1759,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="29">
-        <v>48.5</v>
+        <v>254.621</v>
       </c>
       <c r="D4" s="29">
         <v>24</v>
@@ -1883,7 +1894,7 @@
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="29">
-        <v>40.52</v>
+        <v>234.2412</v>
       </c>
       <c r="D9" s="29">
         <v>18.97</v>
@@ -1910,7 +1921,7 @@
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="29">
-        <v>0.95</v>
+        <v>2.855</v>
       </c>
       <c r="D10" s="29">
         <v>0.774</v>
@@ -1993,7 +2004,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="34">
         <v>20</v>
@@ -2010,75 +2021,75 @@
       <c r="H13" s="34">
         <v>15</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" ht="31" customHeight="1" spans="1:11">
       <c r="A14" s="35"/>
       <c r="B14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="36">
-        <v>50</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="C14" s="29">
+        <v>100</v>
+      </c>
+      <c r="D14" s="29">
         <v>30</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="29">
         <v>35</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="29">
         <v>15</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="29">
         <v>35.12</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="29">
         <v>33.17</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:11">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="38">
         <f>(C13+C14)/2</f>
-        <v>45</v>
-      </c>
-      <c r="D15" s="36">
+        <v>75</v>
+      </c>
+      <c r="D15" s="38">
         <f t="shared" ref="D15:K15" si="0">(D13+D14)/2</f>
         <v>25</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="38">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="38">
         <f t="shared" si="0"/>
         <v>13.695</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="38">
         <f t="shared" si="0"/>
         <v>37.535</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="38">
         <f t="shared" si="0"/>
         <v>24.085</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2092,7 +2103,7 @@
       </c>
       <c r="C16" s="40">
         <f>C10*(1+C12/100)^C11*C13</f>
-        <v>83.486</v>
+        <v>313.62175</v>
       </c>
       <c r="D16" s="40">
         <f t="shared" ref="D16:K16" si="1">D10*(1+D12/100)^D11*D13</f>
@@ -2134,7 +2145,7 @@
       </c>
       <c r="C17" s="40">
         <f>C10*(1+C12/100)^C11*C14</f>
-        <v>104.3575</v>
+        <v>627.2435</v>
       </c>
       <c r="D17" s="40">
         <f t="shared" ref="D17:K17" si="2">D10*(1+D12/100)^D11*D14</f>
@@ -2171,12 +2182,12 @@
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:11">
       <c r="A18" s="42"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="40">
         <f>C10*(1+C12/100)^C11*C15</f>
-        <v>93.92175</v>
+        <v>470.432625</v>
       </c>
       <c r="D18" s="40">
         <f t="shared" ref="D18:K18" si="3">D10*(1+D12/100)^D11*D15</f>
@@ -2219,28 +2230,28 @@
         <v>30</v>
       </c>
       <c r="C19" s="44">
-        <f>POWER(C16-C4,1/C11)</f>
-        <v>3.27063010984868</v>
+        <f>POWER((C16-C4)/C4,1/C11)</f>
+        <v>0.614215970138218</v>
       </c>
       <c r="D19" s="44">
-        <f t="shared" ref="D19:K19" si="4">POWER(D16-D4,1/D11)</f>
-        <v>-0.770180988545423</v>
+        <f>POWER((D16-D4)/D4,1/D11)</f>
+        <v>-0.267006835849242</v>
       </c>
       <c r="E19" s="44">
-        <f t="shared" si="4"/>
-        <v>3.74665063899516</v>
+        <f t="shared" ref="D19:J19" si="4">POWER((E16-E4)/E4,1/E11)</f>
+        <v>1.03388276842713</v>
       </c>
       <c r="F19" s="44">
         <f t="shared" si="4"/>
-        <v>1.79824488385494</v>
+        <v>0.995734913564106</v>
       </c>
       <c r="G19" s="44">
         <f t="shared" si="4"/>
-        <v>2.83858530678729</v>
+        <v>0.915682925356077</v>
       </c>
       <c r="H19" s="44">
         <f t="shared" si="4"/>
-        <v>3.15542024719762</v>
+        <v>1.20368390226378</v>
       </c>
       <c r="I19" s="44" t="e">
         <f t="shared" si="4"/>
@@ -2251,7 +2262,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="44" t="e">
-        <f t="shared" si="4"/>
+        <f>POWER((K16-K4)/K4,1/K11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2261,28 +2272,28 @@
         <v>31</v>
       </c>
       <c r="C20" s="46">
-        <f>POWER(C17-C4,1/C11)</f>
-        <v>3.8226144579497</v>
+        <f>POWER((C17-C4)/C4,1/C11)</f>
+        <v>1.13533741942561</v>
       </c>
       <c r="D20" s="46">
-        <f t="shared" ref="D20:K20" si="5">POWER(D17-D4,1/D11)</f>
-        <v>2.24499083168793</v>
+        <f>POWER((D17-D4)/D4,1/D11)</f>
+        <v>0.778294851982317</v>
       </c>
       <c r="E20" s="46">
-        <f t="shared" si="5"/>
-        <v>5.03614606274692</v>
+        <f t="shared" ref="D20:K20" si="5">POWER((E17-E4)/E4,1/E11)</f>
+        <v>1.38971714612618</v>
       </c>
       <c r="F20" s="46">
         <f t="shared" si="5"/>
-        <v>2.02311922104365</v>
+        <v>1.12025367667237</v>
       </c>
       <c r="G20" s="46">
         <f t="shared" si="5"/>
-        <v>2.54608827387445</v>
+        <v>0.821327988016275</v>
       </c>
       <c r="H20" s="46">
         <f t="shared" si="5"/>
-        <v>4.50282513956162</v>
+        <v>1.71767235759247</v>
       </c>
       <c r="I20" s="46" t="e">
         <f t="shared" si="5"/>
@@ -2299,229 +2310,229 @@
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:11">
       <c r="A21" s="42"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="47">
-        <f>POWER(C18-C4,1/C11)</f>
-        <v>3.56797076757204</v>
-      </c>
-      <c r="D21" s="47">
-        <f t="shared" ref="D21:K21" si="6">POWER(D18-D4,1/D11)</f>
-        <v>1.75753823029462</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="C21" s="48">
+        <f>POWER((C18-C4)/C4,1/C11)</f>
+        <v>0.946368344901636</v>
+      </c>
+      <c r="D21" s="48">
+        <f t="shared" ref="D21:K21" si="6">POWER((D18-D4)/D4,1/D11)</f>
+        <v>0.609304473538519</v>
+      </c>
+      <c r="E21" s="48">
         <f t="shared" si="6"/>
-        <v>4.48409031991937</v>
-      </c>
-      <c r="F21" s="47">
+        <v>1.2373781706743</v>
+      </c>
+      <c r="F21" s="48">
         <f t="shared" si="6"/>
-        <v>1.91727581780647</v>
-      </c>
-      <c r="G21" s="47">
+        <v>1.06164543431343</v>
+      </c>
+      <c r="G21" s="48">
         <f t="shared" si="6"/>
-        <v>2.70025772574121</v>
-      </c>
-      <c r="H21" s="47">
+        <v>0.871060625731387</v>
+      </c>
+      <c r="H21" s="48">
         <f t="shared" si="6"/>
-        <v>3.94416416436612</v>
-      </c>
-      <c r="I21" s="47" t="e">
+        <v>1.50456247998963</v>
+      </c>
+      <c r="I21" s="48" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="47" t="e">
+      <c r="J21" s="48" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="47" t="e">
+      <c r="K21" s="48" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" s="26" customFormat="1" ht="27" customHeight="1" spans="1:11">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="44">
         <f>(C16-C4)/(C4-C9)</f>
-        <v>4.38421052631579</v>
-      </c>
-      <c r="D22" s="50">
+        <v>2.89506030481162</v>
+      </c>
+      <c r="D22" s="44">
         <f t="shared" ref="D22:K22" si="7">(D16-D4)/(D4-D9)</f>
         <v>-0.0908260437375754</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="44">
         <f t="shared" si="7"/>
         <v>3.47149834983498</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="44">
         <f t="shared" si="7"/>
         <v>11.8672589795919</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="44">
         <f t="shared" si="7"/>
         <v>6.03485224274407</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="44">
         <f t="shared" si="7"/>
         <v>3.91983780411728</v>
       </c>
-      <c r="I22" s="50" t="e">
+      <c r="I22" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="50" t="e">
+      <c r="J22" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="50" t="e">
+      <c r="K22" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" s="26" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="46">
         <f>(C17-C4)/(C4-C9)</f>
-        <v>6.99968671679198</v>
-      </c>
-      <c r="D23" s="53">
+        <v>18.2839134829586</v>
+      </c>
+      <c r="D23" s="46">
         <f t="shared" ref="D23:K23" si="8">(D17-D4)/(D4-D9)</f>
         <v>2.24944681908548</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="46">
         <f t="shared" si="8"/>
         <v>8.43106270627062</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="46">
         <f t="shared" si="8"/>
         <v>16.8992857142857</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="46">
         <f t="shared" si="8"/>
         <v>4.35492981530343</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="46">
         <f t="shared" si="8"/>
         <v>11.3907342482845</v>
       </c>
-      <c r="I23" s="53" t="e">
+      <c r="I23" s="46" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="53" t="e">
+      <c r="J23" s="46" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="53" t="e">
+      <c r="K23" s="46" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:11">
-      <c r="A24" s="54"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="48">
         <f>(C18-C4)/(C4-C9)</f>
-        <v>5.69194862155389</v>
-      </c>
-      <c r="D24" s="47">
+        <v>10.5894868938851</v>
+      </c>
+      <c r="D24" s="48">
         <f t="shared" ref="D24:K24" si="9">(D18-D4)/(D4-D9)</f>
         <v>1.07931038767395</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="48">
         <f t="shared" si="9"/>
         <v>5.9512805280528</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="48">
         <f t="shared" si="9"/>
         <v>14.3832723469388</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="48">
         <f t="shared" si="9"/>
         <v>5.19489102902375</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="48">
         <f t="shared" si="9"/>
         <v>7.65528602620087</v>
       </c>
-      <c r="I24" s="47" t="e">
+      <c r="I24" s="48" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="47" t="e">
+      <c r="J24" s="48" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="47" t="e">
+      <c r="K24" s="48" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" ht="105" customHeight="1" spans="1:11">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="56"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
